--- a/PhoneFlippingGradingScale.xlsx
+++ b/PhoneFlippingGradingScale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SP B75 Pro/Coding/Python/Coding Programs/PerceptionZ Price Check/Price Information/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SP B75 Pro/Coding/Python/Coding Programs/FlippingItems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB115523-0D7B-1044-81A1-9D49F552B7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA619AF-8F11-9646-9B05-EBFF9C40B173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{9D50FEF3-02FF-44B7-A9F2-4579D774DD18}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9D50FEF3-02FF-44B7-A9F2-4579D774DD18}"/>
   </bookViews>
   <sheets>
     <sheet name="USED IPHONE" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -57,7 +57,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 $22 for parts
@@ -73,7 +73,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -82,7 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 $22 for parts
@@ -98,7 +98,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -107,7 +107,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 $22 for parts</t>
@@ -122,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris: 
 $22 for parts</t>
@@ -137,7 +137,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -146,7 +146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $27
@@ -162,7 +162,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -171,7 +171,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 $27 for parts</t>
@@ -186,7 +186,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -195,7 +195,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts: $30
@@ -211,7 +211,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -220,7 +220,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 $30 for parts</t>
@@ -259,7 +259,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -268,7 +268,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 $30 for parts</t>
@@ -283,7 +283,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -292,7 +292,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 $30 for parts
@@ -308,7 +308,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -317,7 +317,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $31
@@ -333,7 +333,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -342,7 +342,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $31
@@ -358,7 +358,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -367,7 +367,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 parts $30
@@ -383,7 +383,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -392,7 +392,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $30
@@ -408,7 +408,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -417,7 +417,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $32</t>
@@ -432,7 +432,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -441,7 +441,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $32
@@ -457,7 +457,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -466,7 +466,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Pats $30
@@ -482,7 +482,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -491,7 +491,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $30
@@ -507,7 +507,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -516,7 +516,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $30</t>
@@ -531,7 +531,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -540,7 +540,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $30</t>
@@ -555,7 +555,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -564,7 +564,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $115</t>
@@ -579,7 +579,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -588,7 +588,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $115
@@ -604,7 +604,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -613,7 +613,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $70</t>
@@ -628,7 +628,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:
 Parts $70</t>
@@ -643,7 +643,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -652,7 +652,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $130
@@ -668,7 +668,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -677,7 +677,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $130
@@ -693,7 +693,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -702,7 +702,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $135</t>
@@ -717,7 +717,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>armontae harris:</t>
         </r>
@@ -726,7 +726,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Parts $135</t>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="97">
   <si>
     <t>**ABSOLUTLEY NO LOST OR STOLEN PRODUCTS**</t>
   </si>
@@ -1078,12 +1078,6 @@
     <t>iPhone XS</t>
   </si>
   <si>
-    <t>212,10</t>
-  </si>
-  <si>
-    <t>169,68</t>
-  </si>
-  <si>
     <t>788.43.43</t>
   </si>
 </sst>
@@ -1095,7 +1089,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,14 +1239,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1298,19 +1292,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1805,10 +1786,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="10" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="10" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2274,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6DC99E-1611-40E1-805F-63C199FCB53D}">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="G103" colorId="8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K109" sqref="K109"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A15" colorId="8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -3033,11 +3014,11 @@
       <c r="G38" s="12">
         <v>177.28</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>97</v>
+      <c r="H38" s="12">
+        <v>212.1</v>
+      </c>
+      <c r="I38" s="12">
+        <v>169.68</v>
       </c>
       <c r="J38" s="12">
         <v>202.6</v>
@@ -4588,7 +4569,7 @@
         <v>638.34</v>
       </c>
       <c r="J96" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K96" s="24">
         <v>630.74</v>
@@ -4992,6 +4973,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A10:E12"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A94:B94"/>
@@ -5001,14 +4990,6 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A10:E12"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/PhoneFlippingGradingScale.xlsx
+++ b/PhoneFlippingGradingScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SP B75 Pro/Coding/Python/Coding Programs/FlippingItems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA619AF-8F11-9646-9B05-EBFF9C40B173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF37430C-1DC7-4344-8C07-0352A2B10E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9D50FEF3-02FF-44B7-A9F2-4579D774DD18}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" xr2:uid="{9D50FEF3-02FF-44B7-A9F2-4579D774DD18}"/>
   </bookViews>
   <sheets>
     <sheet name="USED IPHONE" sheetId="3" r:id="rId1"/>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="96">
   <si>
     <t>**ABSOLUTLEY NO LOST OR STOLEN PRODUCTS**</t>
   </si>
@@ -1076,9 +1076,6 @@
   </si>
   <si>
     <t>iPhone XS</t>
-  </si>
-  <si>
-    <t>788.43.43</t>
   </si>
 </sst>
 </file>
@@ -2255,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6DC99E-1611-40E1-805F-63C199FCB53D}">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A15" colorId="8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="D82" colorId="8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -4568,8 +4565,8 @@
       <c r="I96" s="24">
         <v>638.34</v>
       </c>
-      <c r="J96" s="24" t="s">
-        <v>96</v>
+      <c r="J96" s="24">
+        <v>788.43</v>
       </c>
       <c r="K96" s="24">
         <v>630.74</v>
